--- a/docs/Графики.xlsx
+++ b/docs/Графики.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Isaac\source\repos\kompas_table_plugin\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{366A2C16-14B5-4C54-B827-D79C69D51E6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8170B48-E3B1-4636-B430-CDF8515D35C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5604" xr2:uid="{FD95BEB3-DF5D-40E6-9673-0CD655F87E77}"/>
   </bookViews>
@@ -546,6 +546,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -563,37 +564,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -1049,37 +1020,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -1706,37 +1647,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -4670,6 +4581,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.46833</cdr:x>
+      <cdr:y>0.66667</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.66833</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F61E5D04-CBE5-469B-B48D-3FEDDD83F75B}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2141220" y="2689860"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -4970,7 +4924,7 @@
   <dimension ref="A1:AJ131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AL3" sqref="AL3"/>
+      <selection activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
